--- a/数据整理/stocks/港股/00788-中国铁塔.xlsx
+++ b/数据整理/stocks/港股/00788-中国铁塔.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.02</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.28</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.02</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.28</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.29</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.29</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00788-中国铁塔.xlsx
+++ b/数据整理/stocks/港股/00788-中国铁塔.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006931</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00788-中国铁塔.xlsx
+++ b/数据整理/stocks/港股/00788-中国铁塔.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -840,4 +841,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006931</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00788-中国铁塔.xlsx
+++ b/数据整理/stocks/港股/00788-中国铁塔.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00788-中国铁塔.xlsx
+++ b/数据整理/stocks/港股/00788-中国铁塔.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -982,7 +983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,17 +994,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1013,14 +1034,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
+          <t>006930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1029,7 +1072,97 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>006931</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -1045,7 +1178,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -1061,13 +1194,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00788-中国铁塔.xlsx
+++ b/数据整理/stocks/港股/00788-中国铁塔.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1115,7 +1116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,17 +1127,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1146,14 +1167,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1162,14 +1205,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
+          <t>513160</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华恒生港股通中国科技ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1178,14 +1243,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1194,7 +1281,129 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -1210,13 +1419,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00788-中国铁塔.xlsx
+++ b/数据整理/stocks/港股/00788-中国铁塔.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1324,7 +1325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1335,17 +1336,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1355,14 +1376,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.09</v>
+          <t>513160</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华恒生港股通中国科技ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1371,14 +1414,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1387,14 +1452,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1403,14 +1490,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.01</v>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1419,7 +1528,145 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>008972</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -1435,13 +1682,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00788-中国铁塔.xlsx
+++ b/数据整理/stocks/港股/00788-中国铁塔.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,129 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006930</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰康中证港股通TMT主题指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006931</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰康中证港股通TMT主题指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -589,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -640,32 +656,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006930</t>
+          <t>513160</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康中证港股通TMT主题指数A</t>
+          <t>银华恒生港股通中国科技ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>93.12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0078</t>
+          <t>0.0294</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -678,36 +694,150 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006931</t>
+          <t>501303</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康中证港股通TMT主题指数C</t>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>91.16</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0054</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008972</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +851,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,7 +872,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -772,36 +902,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006930</t>
+          <t>010783</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康中证港股通TMT主题指数A</t>
+          <t>德邦沪港深龙头混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>81.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0057</t>
+          <t>0.0500</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -810,35 +940,111 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006931</t>
+          <t>513160</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康中证港股通TMT主题指数C</t>
+          <t>银华恒生港股通中国科技ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>92.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0282</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -874,7 +1080,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -919,21 +1125,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>90.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0066</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -952,26 +1158,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>90.48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0020</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1006,7 +1212,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1051,21 +1257,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0044</t>
+          <t>0.0066</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1084,26 +1290,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.0020</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1117,7 +1323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1138,7 +1344,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1168,36 +1374,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010783</t>
+          <t>006930</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>德邦沪港深龙头混合A</t>
+          <t>泰康中证港股通TMT主题指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.58</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0500</t>
+          <t>0.0057</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1206,111 +1412,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>513160</t>
+          <t>006931</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银华恒生港股通中国科技ETF</t>
+          <t>泰康中证港股通TMT主题指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0282</t>
+          <t>0.0017</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010784</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>德邦沪港深龙头混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>81.58</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0145</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160922</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1325,7 +1455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1346,7 +1476,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1376,32 +1506,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>513160</t>
+          <t>006930</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华恒生港股通中国科技ETF</t>
+          <t>泰康中证港股通TMT主题指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.12</t>
+          <t>94.01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0294</t>
+          <t>0.0078</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1414,150 +1544,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501303</t>
+          <t>006931</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+          <t>泰康中证港股通TMT主题指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.16</t>
+          <t>94.01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0054</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004996</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发港股通恒生综合中型股指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.16</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160922</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.48</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008972</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>大成恒生综合中小型股指数C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.48</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1571,144 +1587,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.04</v>
+          <t>006930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.01</v>
+          <t>006931</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/00788-中国铁塔.xlsx
+++ b/数据整理/stocks/港股/00788-中国铁塔.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +537,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -552,7 +553,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -568,7 +569,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.12</t>
+          <t>92.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0294</t>
+          <t>0.0233</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -699,31 +716,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+          <t>广发恒生中型股指数（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.16</t>
+          <t>89.12</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0054</t>
+          <t>0.0034</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -737,31 +754,31 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+          <t>广发恒生中型股指数（LOF）C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.16</t>
+          <t>89.12</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -775,7 +792,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+          <t>大成恒生综合中小型股指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -785,17 +802,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>86.62</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0010</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -818,22 +835,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>86.62</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -846,6 +863,252 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513160</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华恒生港股通中国科技ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008972</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1046,138 +1309,6 @@
       </c>
       <c r="H5" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006930</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰康中证港股通TMT主题指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.48</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006931</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰康中证港股通TMT主题指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.48</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1212,7 +1343,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1257,21 +1388,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>90.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0066</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1290,26 +1421,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>90.48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0020</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1384,26 +1515,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0057</t>
+          <t>0.0066</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1422,26 +1553,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0020</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1516,22 +1647,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0078</t>
+          <t>0.0057</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1554,22 +1685,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0017</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1582,6 +1713,138 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006931</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00788-中国铁塔.xlsx
+++ b/数据整理/stocks/港股/00788-中国铁塔.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="6">
@@ -553,7 +554,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -569,7 +570,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -585,7 +586,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -601,7 +602,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -611,8 +612,156 @@
         <v>0.01</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006931</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -622,7 +771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,26 +832,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.45</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0233</t>
+          <t>0.0370</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -721,17 +870,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.12</t>
+          <t>90.77</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -759,101 +908,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.12</t>
+          <t>90.77</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.0017</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160922</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成恒生综合中小型股指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.62</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008972</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>大成恒生综合中小型股指数C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.62</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -929,26 +1002,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.12</t>
+          <t>92.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0294</t>
+          <t>0.0233</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -962,31 +1035,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+          <t>广发恒生中型股指数（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.16</t>
+          <t>89.12</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0054</t>
+          <t>0.0034</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1000,31 +1073,31 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+          <t>广发恒生中型股指数（LOF）C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.16</t>
+          <t>89.12</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1038,7 +1111,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+          <t>大成恒生综合中小型股指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1048,17 +1121,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>86.62</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0010</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1081,22 +1154,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>86.62</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1109,6 +1182,252 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513160</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华恒生港股通中国科技ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008972</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1309,138 +1628,6 @@
       </c>
       <c r="H5" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006930</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰康中证港股通TMT主题指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.48</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006931</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰康中证港股通TMT主题指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.48</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1475,7 +1662,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1520,21 +1707,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>90.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0066</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1553,26 +1740,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>90.48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0020</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1647,26 +1834,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0057</t>
+          <t>0.0066</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1685,26 +1872,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0020</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1779,22 +1966,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0078</t>
+          <t>0.0057</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1817,22 +2004,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0017</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1852,51 +2039,51 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -1911,22 +2098,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>94.01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0071</t>
+          <t>0.0078</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1934,7 +2121,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -1954,12 +2141,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>94.01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1972,6 +2159,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>